--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E1E7A1-C0AE-400C-881D-56F7F26713DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DDCAF4-A034-4871-93F3-3AB0C375C090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5DD53DDC-739E-4A67-AA71-0ED4DBBA9906}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{5DD53DDC-739E-4A67-AA71-0ED4DBBA9906}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>level_id</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Arif</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,77 +463,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2">
+        <v>12345</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3">
+        <v>12345</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4">
+        <v>12345</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="D5">
+        <v>12345</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
         <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="D6">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
